--- a/myCCB/www/icd10_to_condition_IMAGE.xlsx
+++ b/myCCB/www/icd10_to_condition_IMAGE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC7EFA-3757-463F-A9BA-DA5FB6C074E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="885" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
   <si>
     <t>A. Infectious and parasitic diseases</t>
   </si>
@@ -821,12 +822,6 @@
     <t>2.Homicide/Interpersonal violence</t>
   </si>
   <si>
-    <t>3. Poisonings (non-drug)</t>
-  </si>
-  <si>
-    <t>4. Falls</t>
-  </si>
-  <si>
     <t>a. Accidental poisonings by drugs (X40-X44)</t>
   </si>
   <si>
@@ -857,9 +852,6 @@
     <t>C. Injuries of unknown intent</t>
   </si>
   <si>
-    <t>5. Other unintentional injuries</t>
-  </si>
-  <si>
     <t>1. Opioid use disorders</t>
   </si>
   <si>
@@ -875,13 +867,31 @@
     <t>5. Other drug use disorders</t>
   </si>
   <si>
-    <t>P. Alcohol-related (poisoning, disorders, maternal)</t>
+    <t>3. Alcohol-related conditions</t>
+  </si>
+  <si>
+    <t>4. Poisonings (non-drug)</t>
+  </si>
+  <si>
+    <t>5. Falls</t>
+  </si>
+  <si>
+    <t>6. Other unintentional injuries</t>
+  </si>
+  <si>
+    <t>a. Alcoholic liver disease</t>
+  </si>
+  <si>
+    <t>b. Other alcohol-related</t>
+  </si>
+  <si>
+    <t>2. Liver cirrhosis (non-alcohol)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -1233,7 +1243,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1379,14 +1389,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="8"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="8"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -1417,7 +1421,7 @@
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1508,6 +1512,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1543,6 +1564,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1718,14 +1756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1861,7 +1899,7 @@
         <v>156</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -1877,7 +1915,7 @@
         <v>157</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -1892,7 +1930,7 @@
         <v>155</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -1907,7 +1945,7 @@
         <v>158</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -1922,7 +1960,7 @@
         <v>240</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -1936,8 +1974,8 @@
       <c r="F18" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="60" t="s">
-        <v>272</v>
+      <c r="H18" s="59" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -1951,8 +1989,8 @@
       <c r="F19" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="60" t="s">
-        <v>273</v>
+      <c r="H19" s="59" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -1967,7 +2005,7 @@
         <v>161</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -1981,8 +2019,8 @@
       <c r="F21" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>257</v>
+      <c r="H21" s="21" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -1996,8 +2034,8 @@
       <c r="F22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>268</v>
+      <c r="H22" s="21" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -2011,8 +2049,8 @@
       <c r="F23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>260</v>
+      <c r="H23" s="14" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -2026,8 +2064,8 @@
       <c r="F24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>261</v>
+      <c r="H24" s="14" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -2041,8 +2079,8 @@
       <c r="F25" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>262</v>
+      <c r="H25" s="14" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -2057,7 +2095,7 @@
         <v>62</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -2071,8 +2109,8 @@
       <c r="F27" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>119</v>
+      <c r="H27" s="19" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -2086,8 +2124,8 @@
       <c r="F28" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>120</v>
+      <c r="H28" s="19" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
@@ -2101,8 +2139,8 @@
       <c r="F29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>255</v>
+      <c r="H29" s="19" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
@@ -2116,8 +2154,8 @@
       <c r="F30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>264</v>
+      <c r="H30" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
@@ -2131,8 +2169,8 @@
       <c r="F31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>265</v>
+      <c r="H31" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
@@ -2146,8 +2184,8 @@
       <c r="F32" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>266</v>
+      <c r="H32" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -2161,8 +2199,8 @@
       <c r="F33" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="58" t="s">
-        <v>267</v>
+      <c r="H33" s="19" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -2176,8 +2214,11 @@
       <c r="F34" s="52" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H34" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>129</v>
       </c>
@@ -2188,11 +2229,11 @@
       <c r="F35" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H35" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
         <v>130</v>
       </c>
@@ -2203,8 +2244,8 @@
       <c r="F36" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="38" t="s">
-        <v>245</v>
+      <c r="H36" s="58" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -2218,11 +2259,8 @@
       <c r="F37" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>23</v>
       </c>
@@ -2233,8 +2271,11 @@
       <c r="F38" s="52" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>24</v>
       </c>
@@ -2245,6 +2286,9 @@
       <c r="F39" s="13" t="s">
         <v>84</v>
       </c>
+      <c r="H39" s="38" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
@@ -2256,6 +2300,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="14" t="s">
         <v>85</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -2313,7 +2360,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="22" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -2735,15 +2782,12 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
-      <c r="F91" s="18" t="s">
+      <c r="F91" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
-      <c r="F92" s="61" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
@@ -2880,7 +2924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H126"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">

--- a/myCCB/www/icd10_to_condition_IMAGE.xlsx
+++ b/myCCB/www/icd10_to_condition_IMAGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC7EFA-3757-463F-A9BA-DA5FB6C074E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B99D49F-B6B0-4FB3-8BBD-B68F4646D635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -1243,7 +1243,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1392,6 +1392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="8"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1762,8 +1763,8 @@
   </sheetPr>
   <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2196,9 +2197,7 @@
         <v>149</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="F33" s="60"/>
       <c r="H33" s="19" t="s">
         <v>262</v>
       </c>
@@ -2211,9 +2210,7 @@
         <v>150</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="52" t="s">
-        <v>66</v>
-      </c>
+      <c r="F34" s="60"/>
       <c r="H34" s="19" t="s">
         <v>263</v>
       </c>
@@ -2226,9 +2223,7 @@
         <v>151</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="52" t="s">
-        <v>67</v>
-      </c>
+      <c r="F35" s="60"/>
       <c r="H35" s="19" t="s">
         <v>264</v>
       </c>
@@ -2241,8 +2236,8 @@
         <v>152</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="52" t="s">
-        <v>68</v>
+      <c r="F36" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H36" s="58" t="s">
         <v>265</v>
@@ -2257,7 +2252,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2269,7 +2264,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H38" s="40" t="s">
         <v>244</v>
@@ -2283,8 +2278,8 @@
         <v>144</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="13" t="s">
-        <v>84</v>
+      <c r="F39" s="52" t="s">
+        <v>68</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>245</v>
@@ -2298,8 +2293,8 @@
         <v>145</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="14" t="s">
-        <v>85</v>
+      <c r="F40" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="H40" s="57" t="s">
         <v>250</v>
@@ -2313,8 +2308,8 @@
         <v>146</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="14" t="s">
-        <v>86</v>
+      <c r="F41" s="52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -2325,8 +2320,8 @@
         <v>147</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="14" t="s">
-        <v>238</v>
+      <c r="F42" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -2335,8 +2330,8 @@
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="10" t="s">
-        <v>246</v>
+      <c r="F43" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -2347,8 +2342,8 @@
         <v>205</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="12" t="s">
-        <v>88</v>
+      <c r="F44" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -2359,8 +2354,8 @@
         <v>80</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="22" t="s">
-        <v>277</v>
+      <c r="F45" s="14" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -2371,8 +2366,8 @@
         <v>81</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="18" t="s">
-        <v>90</v>
+      <c r="F46" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -2383,8 +2378,8 @@
         <v>82</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="18" t="s">
-        <v>171</v>
+      <c r="F47" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
@@ -2395,8 +2390,8 @@
         <v>83</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="18" t="s">
-        <v>172</v>
+      <c r="F48" s="22" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -2408,7 +2403,7 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="18" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -2420,7 +2415,7 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -2432,7 +2427,7 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -2441,7 +2436,7 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="18" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -2450,8 +2445,8 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="13" t="s">
-        <v>91</v>
+      <c r="F53" s="18" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -2459,8 +2454,8 @@
         <v>241</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="F54" s="22" t="s">
-        <v>92</v>
+      <c r="F54" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -2468,8 +2463,8 @@
         <v>215</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="F55" s="21" t="s">
-        <v>176</v>
+      <c r="F55" s="18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -2477,8 +2472,8 @@
         <v>13</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="F56" s="21" t="s">
-        <v>177</v>
+      <c r="F56" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -2487,8 +2482,8 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="2"/>
-      <c r="F57" s="21" t="s">
-        <v>178</v>
+      <c r="F57" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -2497,8 +2492,8 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="2"/>
-      <c r="F58" s="18" t="s">
-        <v>248</v>
+      <c r="F58" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -2507,8 +2502,8 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
-      <c r="F59" s="18" t="s">
-        <v>249</v>
+      <c r="F59" s="21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
@@ -2517,8 +2512,8 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="2"/>
-      <c r="F60" s="18" t="s">
-        <v>251</v>
+      <c r="F60" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -2528,7 +2523,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="F61" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
@@ -2538,7 +2533,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="F62" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
@@ -2546,8 +2541,8 @@
         <v>131</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="F63" s="10" t="s">
-        <v>103</v>
+      <c r="F63" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
@@ -2557,7 +2552,7 @@
       <c r="C64" s="4"/>
       <c r="D64" s="2"/>
       <c r="F64" s="18" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
@@ -2567,7 +2562,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="F65" s="18" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
@@ -2576,8 +2571,8 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="F66" s="18" t="s">
-        <v>106</v>
+      <c r="F66" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
@@ -2587,7 +2582,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="4"/>
       <c r="F67" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
@@ -2597,7 +2592,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="F68" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
@@ -2607,7 +2602,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="F69" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
@@ -2616,8 +2611,8 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="F70" s="56" t="s">
-        <v>239</v>
+      <c r="F70" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
@@ -2626,8 +2621,8 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="2"/>
-      <c r="F71" s="13" t="s">
-        <v>54</v>
+      <c r="F71" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
@@ -2636,8 +2631,8 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="4"/>
-      <c r="F72" s="13" t="s">
-        <v>72</v>
+      <c r="F72" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
@@ -2646,8 +2641,8 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="F73" s="12" t="s">
-        <v>73</v>
+      <c r="F73" s="56" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
@@ -2655,8 +2650,8 @@
         <v>133</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="F74" s="12" t="s">
-        <v>74</v>
+      <c r="F74" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
@@ -2664,8 +2659,8 @@
         <v>187</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="F75" s="12" t="s">
-        <v>170</v>
+      <c r="F75" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
@@ -2674,7 +2669,7 @@
       </c>
       <c r="C76" s="4"/>
       <c r="F76" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
@@ -2683,7 +2678,7 @@
       </c>
       <c r="C77" s="2"/>
       <c r="F77" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
@@ -2692,7 +2687,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="F78" s="12" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
@@ -2701,7 +2696,7 @@
       </c>
       <c r="C79" s="2"/>
       <c r="F79" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
@@ -2709,8 +2704,8 @@
         <v>40</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="F80" s="13" t="s">
-        <v>96</v>
+      <c r="F80" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
@@ -2718,15 +2713,15 @@
         <v>134</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="F81" s="13" t="s">
-        <v>97</v>
+      <c r="F81" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="F82" s="18" t="s">
-        <v>98</v>
+      <c r="F82" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
@@ -2734,66 +2729,75 @@
         <v>243</v>
       </c>
       <c r="C83" s="8"/>
-      <c r="F83" s="18" t="s">
-        <v>99</v>
+      <c r="F83" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
-      <c r="F84" s="18" t="s">
-        <v>100</v>
+      <c r="F84" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="F85" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="F86" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
-      <c r="F87" s="13" t="s">
-        <v>110</v>
+      <c r="F87" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="F88" s="18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="F89" s="18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
-      <c r="F90" s="18" t="s">
-        <v>113</v>
+      <c r="F90" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
-      <c r="F91" s="24" t="s">
-        <v>181</v>
+      <c r="F91" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
+      <c r="F92" s="18" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
+      <c r="F93" s="18" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
+      <c r="F94" s="24" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
